--- a/data/income_statement/2digits/size/87_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/87_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>87-Residential care activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>87-Residential care activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>57626.82989999999</v>
+        <v>57014.13559000001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>70954.87057000001</v>
+        <v>70954.87057</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>84032.72529</v>
+        <v>84013.40616</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>111832.07061</v>
+        <v>111568.22018</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>158625.14289</v>
+        <v>159274.42341</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>158787.24638</v>
+        <v>158775.46648</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>181991.98116</v>
+        <v>184272.16562</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>210272.88282</v>
+        <v>211874.50027</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>251048.35788</v>
+        <v>252609.15336</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>303057.04053</v>
+        <v>301948.53086</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>378983.90749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>402507.6646</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>518170.303</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>54219.30948</v>
+        <v>53606.61517</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>65296.60638999999</v>
+        <v>65296.60639</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>80893.62437000001</v>
+        <v>80879.11774</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>107709.77287</v>
+        <v>107615.92244</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>153857.58329</v>
+        <v>154743.27814</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>155520.88069</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>178842.79269</v>
+        <v>181055.35022</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>204830.76801</v>
+        <v>206371.31245</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>238696.89437</v>
+        <v>240725.87306</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>286670.94123</v>
+        <v>285538.87535</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>358921.06938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>377437.67852</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>490091.884</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>967.6036700000001</v>
@@ -1060,50 +976,60 @@
       <c r="M7" s="48" t="n">
         <v>1.894</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>26.691</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2439.91675</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5062.90036</v>
+        <v>5062.900360000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2260.43879</v>
+        <v>2255.62629</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2821.9746</v>
+        <v>2651.9746</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4327.90724</v>
+        <v>4091.492909999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1169.75914</v>
+        <v>1157.97924</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2454.009</v>
+        <v>2521.63593</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5324.173430000001</v>
+        <v>5385.246440000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>10830.33336</v>
+        <v>10362.15015</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>16386.0993</v>
+        <v>16409.65551</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>20060.94411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>25068.09208</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>28051.728</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>57.85857000000001</v>
@@ -1130,7 +1056,7 @@
         <v>39.727</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>39.90942</v>
+        <v>27.92241</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>66.12939999999999</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>83.2736</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>170.856</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>56.21594</v>
@@ -1169,7 +1100,7 @@
         <v>21.51007</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>38.46534</v>
+        <v>26.47833</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>66.12939999999999</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>52.82928</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>159.15</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1.64263</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>30.44432</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>11.706</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>57568.97133</v>
+        <v>56956.27701999999</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>70946.36697999999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>84000.40209999999</v>
+        <v>83981.08297</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>111743.39968</v>
+        <v>111479.54925</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>158495.74546</v>
+        <v>159145.02598</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>158677.4143</v>
+        <v>158665.6344</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>181963.59264</v>
+        <v>184243.7771</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>210233.15582</v>
+        <v>211834.77327</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>251008.44846</v>
+        <v>252581.23095</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>302990.91113</v>
+        <v>301882.40146</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>378900.6338900001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>402424.391</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>517999.447</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>36831.08402</v>
+        <v>36234.82489</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>43316.28533999999</v>
+        <v>43316.28534</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>50107.15556</v>
+        <v>50099.14681000001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>78157.56250999999</v>
+        <v>78099.52506999999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>105915.77614</v>
+        <v>106806.21256</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>106647.47603</v>
+        <v>106575.6138</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>126649.04968</v>
+        <v>128074.65563</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>152952.1754</v>
+        <v>153833.20374</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>185634.60751</v>
+        <v>186986.24932</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>223000.50067</v>
+        <v>222849.48382</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>291753.79067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>306622.41185</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>383228.771</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>77.00753</v>
@@ -1364,7 +1320,7 @@
         <v>426.99934</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>496.20223</v>
+        <v>453.37753</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>262.70918</v>
@@ -1372,26 +1328,31 @@
       <c r="M15" s="48" t="n">
         <v>7898.69881</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>1089.643</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1014.10724</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>844.34611</v>
+        <v>844.3461100000001</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>583.19587</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3353.48181</v>
+        <v>3353.481810000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3493.45032</v>
+        <v>3463.70296</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>4938.78145</v>
@@ -1400,61 +1361,71 @@
         <v>3140.71447</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8405.832179999999</v>
+        <v>8255.796109999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>7717.50598</v>
+        <v>7593.324970000001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2348.54946</v>
+        <v>1746.94629</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5329.569530000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4800.033530000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>15085.554</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>35705.83631</v>
+        <v>35109.57718</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>41039.99544</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>49130.62206</v>
+        <v>49122.61331</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>74572.55108</v>
+        <v>74565.16718</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>102330.48537</v>
+        <v>103250.66915</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>101451.401</v>
+        <v>101379.53877</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>122099.80526</v>
+        <v>123525.41121</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>143835.503</v>
+        <v>144866.56741</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>177217.55251</v>
+        <v>178736.20003</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>220030.35745</v>
+        <v>220480.94377</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>278352.02687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>293750.18405</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>364938.942</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>34.13294</v>
@@ -1466,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>201.89233</v>
+        <v>151.23879</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>27.49288</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>173.49546</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2114.632</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>20737.88731</v>
+        <v>20721.45213</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>27630.08164</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>33893.24654</v>
+        <v>33881.93616</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>33585.83717</v>
+        <v>33380.02418</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>52579.96932000001</v>
+        <v>52338.81342</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>52029.93827000001</v>
+        <v>52090.0206</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>55314.54295999999</v>
+        <v>56169.12147</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>57280.98042</v>
+        <v>58001.56953</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>65373.84095000001</v>
+        <v>65594.98163000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>79990.41046000001</v>
+        <v>79032.91764</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>87146.84322000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>95801.97915</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>134770.676</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>16996.05444</v>
+        <v>16914.52722</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>24271.64236</v>
+        <v>24260.68985</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>28179.68727</v>
+        <v>27180.22135</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>30535.01896</v>
+        <v>29833.18724</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>46223.99449</v>
+        <v>44906.35042</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>46785.26668</v>
+        <v>45906.07778</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>50602.33632</v>
+        <v>51154.21723</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>53337.93200000001</v>
+        <v>53547.95092</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>56603.74183</v>
+        <v>56352.55212</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>71816.51145999999</v>
+        <v>71618.73871999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>83015.56761000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>90610.59509</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>117927.416</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1102.63956</v>
@@ -1625,148 +1616,168 @@
         <v>4098.213119999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4167.69044</v>
+        <v>4063.37681</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3591.16403</v>
+        <v>3590.08945</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3733.48331</v>
+        <v>3754.07663</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>6019.8022</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4236.06425</v>
+        <v>3973.95255</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4205.121880000001</v>
+        <v>4205.12188</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5579.566380000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5852.52413</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>6513.025</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>15893.41488</v>
+        <v>15811.88766</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>23146.49551</v>
+        <v>23135.543</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>25246.6575</v>
+        <v>24247.19158</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>26426.80584</v>
+        <v>25724.97412</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>42056.30405</v>
+        <v>40842.97361</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>43172.52084</v>
+        <v>42294.40652</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>46868.85301000001</v>
+        <v>47400.1406</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>47250.24681</v>
+        <v>47460.26573000001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>52366.32858000001</v>
+        <v>52377.25057000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>67609.91745000001</v>
+        <v>67412.14470999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>77436.00122999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>84758.07096</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>111414.391</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3741.83287</v>
+        <v>3806.92491</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3358.43928</v>
+        <v>3369.39179</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5713.559270000001</v>
+        <v>6701.71481</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3050.818209999999</v>
+        <v>3546.83694</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6355.97483</v>
+        <v>7432.463</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5244.671590000001</v>
+        <v>6183.94282</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4712.20664</v>
+        <v>5014.90424</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3943.04842</v>
+        <v>4453.61861</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>8770.099119999999</v>
+        <v>9242.42951</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8173.899000000001</v>
+        <v>7414.17892</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4131.27561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5191.384059999998</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>16843.26</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>889.8054700000001</v>
+        <v>875.4818700000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>805.42152</v>
+        <v>805.4215199999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>390.62857</v>
+        <v>324.41586</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>601.1640399999999</v>
+        <v>518.65745</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>618.9690000000001</v>
+        <v>606.1333000000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>777.60524</v>
+        <v>716.42783</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1159.23792</v>
+        <v>1090.70938</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>950.0445399999999</v>
+        <v>957.9121099999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3576.99917</v>
+        <v>3145.515710000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2104.66238</v>
+        <v>1413.05967</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2463.13667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2750.35424</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5155.545</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1793,7 +1804,7 @@
         <v>125.95627</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>68.59482000000001</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>122.42384</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>32.935</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>588.62441</v>
+        <v>588.6244099999999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>168.57702</v>
@@ -1862,28 +1883,33 @@
         <v>55.51356</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>167.26791</v>
+        <v>134.58327</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>301.59068</v>
+        <v>243.38896</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>76.04561</v>
+        <v>82.54561</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>228.11544</v>
+        <v>227.88382</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>266.30384</v>
+        <v>266.84398</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>521.3808</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>624.99634</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1570.248</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.08288</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1.2425</v>
@@ -1937,7 +1968,7 @@
         <v>101.39997</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3.0855</v>
+        <v>0</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>1.01183</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>59.16</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>6.78825</v>
@@ -1976,7 +2012,7 @@
         <v>5.15272</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6.85584</v>
+        <v>4.59219</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>9.07999</v>
@@ -1988,7 +2024,7 @@
         <v>9.90471</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>24.09219</v>
+        <v>21.77791</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>15.6628</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>12.74373</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>43.282</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>77.77098000000001</v>
+        <v>63.44738</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>320.33426</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>124.21635</v>
+        <v>58.00364</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>164.08482</v>
+        <v>81.57823</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>295.81726</v>
+        <v>288.33071</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>142.09394</v>
+        <v>113.60117</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>54.62652</v>
+        <v>31.81045</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>36.09985</v>
+        <v>18.7528</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>434.38404</v>
+        <v>68.39796000000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>915.6350200000001</v>
+        <v>223.48879</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>151.67248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>160.6285</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>829.35</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>1.64246</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.359</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>215.29645</v>
@@ -2135,67 +2191,77 @@
         <v>257.69684</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>384.1493100000001</v>
+        <v>384.14931</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>577.1847999999999</v>
+        <v>589.67405</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>699.04354</v>
+        <v>717.7581600000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2821.81268</v>
+        <v>2827.45602</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>784.15038</v>
+        <v>784.1537600000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1775.6972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1950.34321</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2619.211</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>118.20627</v>
+        <v>116.15829</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>307.64787</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>409.73242</v>
+        <v>88.56336</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>505.30473</v>
+        <v>449.61547</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>342.35069</v>
+        <v>297.70478</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>249.36883</v>
+        <v>204.10046</v>
       </c>
       <c r="I36" s="47" t="n">
         <v>100.85521</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>417.09432</v>
+        <v>329.2086</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1094.08084</v>
+        <v>231.02229</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2546.48671</v>
+        <v>803.1872</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>783.95635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>314.32824</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>173.791</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>5.860309999999999</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>15.06069</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>22.78</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>24.98916</v>
@@ -2258,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>0</v>
+        <v>243.56621</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>117.84859</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.1639</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>21.45068</v>
+        <v>19.4027</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>187.37491</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>371.57593</v>
+        <v>51.30587000000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>134.66207</v>
+        <v>101.08046</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>217.09781</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>90.05401000000001</v>
+        <v>44.78564</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>54.41137</v>
+        <v>54.41137000000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>346.05488</v>
+        <v>38.91497999999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>934.74247</v>
+        <v>71.56576</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1777.55117</v>
+        <v>34.25166</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>598.29521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>128.49318</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>139.164</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>65.74222</v>
@@ -2438,13 +2534,13 @@
         <v>99.64816</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>0.9049400000000001</v>
+        <v>0.00594</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>350.74086</v>
+        <v>328.63321</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>107.94924</v>
+        <v>63.30333</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>10.94331</v>
@@ -2453,100 +2549,115 @@
         <v>28.75381</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>52.89108</v>
+        <v>28.57905</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>35.00505</v>
+        <v>35.12321</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>752.95805</v>
+        <v>752.9580500000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>170.60045</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>170.77437</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11.847</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>359.04909</v>
+        <v>357.91397</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>566.8235</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>605.65665</v>
+        <v>404.0923</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1226.22547</v>
+        <v>1051.03245</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1056.72967</v>
+        <v>930.5923600000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1398.90181</v>
+        <v>1143.80212</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1923.57947</v>
+        <v>1795.07801</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2440.13883</v>
+        <v>2220.26086</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2433.81119</v>
+        <v>2706.00503</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3684.097249999999</v>
+        <v>3547.61748</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4121.29195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5481.33119</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6426.969</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>358.91328</v>
+        <v>357.77816</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>539.4555899999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>572.53469</v>
+        <v>370.97034</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1155.93634</v>
+        <v>980.74332</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>954.34952</v>
+        <v>828.2122099999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1293.28721</v>
+        <v>1038.18752</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1767.45149</v>
+        <v>1638.95003</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2351.64246</v>
+        <v>2206.96645</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2405.76811</v>
+        <v>2677.96195</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3337.48223</v>
+        <v>3201.00246</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3794.00664</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4115.98019</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5768.424</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0.13581</v>
@@ -2570,7 +2681,7 @@
         <v>156.12798</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>88.49637000000001</v>
+        <v>13.29441</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>28.04308</v>
@@ -2579,91 +2690,106 @@
         <v>346.61502</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>327.28531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1365.351</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>658.545</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4154.382979999999</v>
+        <v>4208.334519999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3289.38943</v>
+        <v>3300.34194</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>5088.798769999999</v>
+        <v>6533.47501</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1920.45205</v>
+        <v>2564.84647</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>5575.863469999999</v>
+        <v>6810.29916</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4374.00619</v>
+        <v>5552.46807</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3847.00988</v>
+        <v>4209.680399999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2035.85981</v>
+        <v>2862.06126</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>8819.206259999999</v>
+        <v>9450.9179</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4047.97742</v>
+        <v>4476.43391</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1689.16398</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2146.07887</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>15398.045</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>580.18355</v>
+        <v>579.0606</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>354.10443</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>778.79481</v>
+        <v>777.4538700000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>712.48275</v>
+        <v>712.48209</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>990.71046</v>
+        <v>989.75298</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>862.5372799999999</v>
+        <v>862.53728</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>870.6717799999999</v>
+        <v>848.58749</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1688.99842</v>
+        <v>1695.61994</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2773.56533</v>
+        <v>2732.58865</v>
       </c>
       <c r="L48" s="47" t="n">
         <v>3021.14786</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4627.698710000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4951.351269999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>6099.997</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>14.79709</v>
@@ -2678,7 +2804,7 @@
         <v>13.0934</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>23.71065</v>
+        <v>23.6975</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>95.63235999999999</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>97.03025</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>565.3864599999999</v>
+        <v>564.26351</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>354.10443</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>752.36565</v>
+        <v>751.0247099999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>699.3893499999999</v>
+        <v>699.38869</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>966.9998099999999</v>
+        <v>966.05548</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>766.9049199999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>865.5627799999999</v>
+        <v>843.47849</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1686.0203</v>
+        <v>1692.64182</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2773.56533</v>
+        <v>2732.588650000001</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>2952.16448</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4530.66846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4854.321019999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6099.514</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>422.95134</v>
+        <v>422.95132</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>230.59023</v>
+        <v>230.53927</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3840.85237</v>
+        <v>3826.26671</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>451.63527</v>
+        <v>451.53173</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1182.6064</v>
+        <v>1167.39714</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5979.98034</v>
+        <v>5977.88204</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>733.2616399999999</v>
+        <v>682.3946399999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5239.7995</v>
+        <v>5363.345839999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2009.76196</v>
+        <v>1610.63428</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4682.013140000001</v>
+        <v>4649.909019999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1497.47237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1596.44094</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4032.877</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2804,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>18.89549</v>
+        <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>62.32078</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>62.84987</v>
+        <v>62.79891000000001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>14.63941</v>
@@ -2854,89 +3000,104 @@
       <c r="M53" s="48" t="n">
         <v>79.02622</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>799.0309999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>360.63056</v>
+        <v>360.63054</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>167.74036</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3826.21296</v>
+        <v>3811.6273</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>346.6149</v>
+        <v>346.51136</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>839.80548</v>
+        <v>824.59622</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5889.455</v>
+        <v>5887.3567</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>731.02373</v>
+        <v>680.1567299999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5188.3863</v>
+        <v>5330.82813</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1971.19882</v>
+        <v>1572.07114</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>4430.864010000001</v>
+        <v>4398.759889999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1418.44615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1517.41472</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3233.846</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4311.61519</v>
+        <v>4364.4438</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3412.90363</v>
+        <v>3423.907099999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2026.74121</v>
+        <v>3484.66217</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2181.29953</v>
+        <v>2825.79683</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5383.96753</v>
+        <v>6632.655</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-743.43687</v>
+        <v>437.1233100000002</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3984.42002</v>
+        <v>4375.87325</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1514.94127</v>
+        <v>-805.6646400000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>9583.009629999999</v>
+        <v>10572.87227</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2387.11214</v>
+        <v>2847.67275</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4819.39032</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5500.989199999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>17465.165</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>926.2121200000001</v>
@@ -2951,67 +3112,75 @@
         <v>1310.12033</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1733.18142</v>
+        <v>1755.38683</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>1738.0551</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1961.36019</v>
+        <v>1979.36125</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1597.68614</v>
+        <v>1613.15226</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2602.74793</v>
+        <v>2620.75471</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>3058.93676</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3806.58224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4032.240950000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5285.997</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3385.40307</v>
+        <v>3438.23168</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2573.00895</v>
+        <v>2584.01242</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>882.29222</v>
+        <v>2340.21318</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>871.1792000000002</v>
+        <v>1515.6765</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3650.78611</v>
+        <v>4877.268169999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-2481.49197</v>
+        <v>-1300.93179</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2023.05983</v>
+        <v>2396.512</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-3112.62741</v>
+        <v>-2418.8169</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>6980.2617</v>
+        <v>7952.11756</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-671.8246199999999</v>
+        <v>-211.2640099999996</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1012.80808</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1468.748250000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>12179.168</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L59" s="35" t="n">
         <v>208</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>232</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>